--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(新規登録、ログイン画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(新規登録、ログイン画面) .xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082BBD4-4091-46B1-9FF7-4517D324EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="30888" yWindow="0" windowWidth="17280" windowHeight="12480" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
+    <sheet name="ログイン画面 " sheetId="4" r:id="rId2"/>
+    <sheet name="新規アカウント登録画面" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ログイン画面 '!$A$1:$M$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">新規アカウント登録画面!$A$1:$M$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -115,11 +120,127 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>箱崎</t>
+    <rPh sb="0" eb="2">
+      <t>ハコザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 押した後 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">場所 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押した後</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能　</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取消機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログインに戻る」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移新規登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧ページ</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録ページ</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページに戻る</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +438,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -338,19 +462,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="6103620" cy="685800"/>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="図 1">
@@ -364,7 +483,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1046"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s3081"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -379,7 +498,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -397,22 +516,22 @@
           </xdr:spPr>
         </xdr:pic>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>604974</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17961</xdr:rowOff>
+      <xdr:colOff>315414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>453119</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>37011</xdr:rowOff>
+      <xdr:colOff>163559</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -427,8 +546,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1720760" y="1868532"/>
-          <a:ext cx="4869180" cy="2794908"/>
+          <a:off x="1656534" y="2143941"/>
+          <a:ext cx="4542065" cy="2762250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,12 +590,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>221797</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178798</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16057</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94978</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1415772" cy="435697"/>
+    <xdr:ext cx="184731" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -490,8 +609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698297" y="2029369"/>
-          <a:ext cx="1415772" cy="435697"/>
+          <a:off x="2027737" y="2152378"/>
+          <a:ext cx="184731" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,29 +637,108 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>〇〇ログイン</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>338275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3696FBDB-E198-4684-9BC9-D471954A4B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423160" y="4193806"/>
+          <a:ext cx="1054555" cy="295190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>589997</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115116</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149406</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="318164" cy="280205"/>
+    <xdr:ext cx="954107" cy="349776"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824092A5-4862-429E-8645-C38BA0A48219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9EE327-1762-4FE8-AAAE-CFB85C430A98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -548,66 +746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3066497" y="2659652"/>
-          <a:ext cx="318164" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>636044</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42726</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="954107" cy="349776"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2432187" y="3049905"/>
+          <a:off x="2335304" y="3578406"/>
           <a:ext cx="954107" cy="349776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -646,23 +785,215 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>267516</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138061</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>452573</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>147586</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C493AE2-4C07-4A8B-BE08-8A4F2948C94A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1E81D4-7177-4E07-9479-A463EF8ECA53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="3002280"/>
+          <a:ext cx="2263140" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F976E8-00CD-4136-8917-6441D5B0A61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3253740" y="3566160"/>
+          <a:ext cx="2263140" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33737</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824092A5-4862-429E-8645-C38BA0A48219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2494997" y="2987856"/>
+          <a:ext cx="492443" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444955</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3696FBDB-E198-4684-9BC9-D471954A4B20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,8 +1001,160 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3424373" y="2682597"/>
-          <a:ext cx="1545771" cy="240846"/>
+          <a:off x="4564380" y="4193806"/>
+          <a:ext cx="1054555" cy="295190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="[2]変更履歴!$A$1:$E$2" spid="_x0000_s4105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1905"/>
+              <a:ext cx="6103620" cy="685800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>643074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>491219</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1A7A66-3DAC-465A-ADF5-8C43B901AB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1747974" y="2105841"/>
+          <a:ext cx="4862105" cy="2762250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,153 +1195,135 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99504</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16057</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94978</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456383</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110934</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="184731" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B1A7F9-41BF-4BD6-AC3D-216B084B5553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181243AF-7801-476F-9A7D-4755F254AAC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3418658" y="3106683"/>
-          <a:ext cx="1555296" cy="242751"/>
+          <a:off x="1799137" y="2152378"/>
+          <a:ext cx="184731" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>137976</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>308057</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>816</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>194038</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="492443" cy="349776"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC44A1C-902E-47F3-9BA1-BDE5D49025AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824092A5-4862-429E-8645-C38BA0A48219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1932215" y="1988547"/>
-          <a:ext cx="680357" cy="518705"/>
+          <a:off x="2769317" y="2744016"/>
+          <a:ext cx="492443" cy="349776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロゴ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>名前</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410392</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40906</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>521155</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107496</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -869,8 +1334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4247606" y="3510727"/>
-          <a:ext cx="791120" cy="297912"/>
+          <a:off x="2673532" y="4414786"/>
+          <a:ext cx="788943" cy="295190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,24 +1368,475 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181792</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3696FBDB-E198-4684-9BC9-D471954A4B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4677592" y="4414786"/>
+          <a:ext cx="945968" cy="295190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178844</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>195126</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1261884" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D816B4B-00AD-4E17-8F6F-3213CD3CC0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1961924" y="2252526"/>
+          <a:ext cx="1261884" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>アカウント登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149406</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9EE327-1762-4FE8-AAAE-CFB85C430A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2106704" y="3578406"/>
+          <a:ext cx="184731" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3530645C-7AD6-4611-8EF6-BC63A5AB3F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307080" y="2766060"/>
+          <a:ext cx="1996440" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7398EE9-6040-4006-9516-38054FCB7971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299460" y="3497580"/>
+          <a:ext cx="1996440" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>346484</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65586</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="954107" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2129564" y="3494586"/>
+          <a:ext cx="954107" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="変更履歴"/>
+      <sheetName val="ログイン画面"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="変更履歴"/>
+      <sheetName val="ログイン画面 "/>
+      <sheetName val="新規アカウント登録画面"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="I4:L7" totalsRowShown="0">
+  <autoFilter ref="I4:L7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="機能名"/>
+    <tableColumn id="2" name="場所"/>
+    <tableColumn id="3" name="押した後"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="I4:L7" totalsRowShown="0">
+  <autoFilter ref="I4:L7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="機能名"/>
+    <tableColumn id="2" name="場所 "/>
+    <tableColumn id="3" name=" 押した後 "/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,10 +2135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1247,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="5">
-        <v>44463</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1259,7 +2177,9 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
@@ -1564,10 +2484,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I1:L6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1576,12 +2498,115 @@
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="9:12" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="8" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:12" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>